--- a/Technology/Software/Okta.xlsx
+++ b/Technology/Software/Okta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E28C55-585A-C940-9F5B-491161F1A442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9C5E65-A350-C141-92E4-53CE393E8691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1036,6 +1036,8 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2276,11 +2278,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>151.76</v>
+    <v>111.35</v>
     <v>44.120399999999997</v>
-    <v>1.1577</v>
-    <v>1.37</v>
-    <v>1.7432E-2</v>
+    <v>1.0932999999999999</v>
+    <v>-0.1</v>
+    <v>-1.181E-3</v>
+    <v>0.43</v>
+    <v>5.0849999999999992E-3</v>
     <v>USD</v>
     <v>Okta, Inc. is an independent identity provider. The Company's Okta Identity Platform is an independent and neutral cloud-based identity solution that allows its customers to integrate with nearly any application, service or cloud that they choose through its secure platform and cloud infrastructure. Its Workforce Identity Cloud is used as the central system for an organization’s connectivity, access, authentication and identity lifecycle management needs spanning all of its users, technology and applications. Its Workforce Identity products include Universal Directory, Single Sign-On, Adaptive Multi-Factor Authentication, Lifecycle Management, API Access Management, Access Gateway, Advanced Server Access and Okta Identity Governance. The Company’s Customer Identity products include Universal Login, Attack Protection, Adaptive Multi-Factor Authentication, Passwordless, Machine to Machine, Private Cloud, Organizations, Actions and Extensibility, and Enterprise Connections.</v>
     <v>6013</v>
@@ -2288,23 +2292,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>100 1st St Ste 600, SAN FRANCISCO, CA, 94105-4687 US</v>
-    <v>80.010000000000005</v>
+    <v>85.73</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45022.998971296096</v>
+    <v>45071.99993825156</v>
     <v>0</v>
-    <v>76.7</v>
-    <v>12896570000</v>
+    <v>83.54</v>
+    <v>13729322138</v>
     <v>OKTA, INC.</v>
     <v>OKTA, INC.</v>
-    <v>78</v>
-    <v>78.59</v>
-    <v>79.959999999999994</v>
-    <v>161287800</v>
+    <v>85.41</v>
+    <v>84.67</v>
+    <v>84.57</v>
+    <v>85</v>
+    <v>162342700</v>
     <v>OKTA</v>
     <v>OKTA, INC. (XNAS:OKTA)</v>
-    <v>1</v>
-    <v>2739863</v>
+    <v>1547796</v>
+    <v>1960156</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2336,6 +2341,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2355,6 +2362,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2371,7 +2379,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2382,13 +2390,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2452,13 +2463,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2502,6 +2519,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2509,6 +2529,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2870,10 +2893,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L100" sqref="L100"/>
+      <selection pane="bottomRight" activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3618,15 +3641,15 @@
       </c>
       <c r="Q16" s="32">
         <f>R101/J3</f>
-        <v>6.9411033369214206</v>
+        <v>7.3893014736275564</v>
       </c>
       <c r="R16" s="32">
         <f>R101/J28</f>
-        <v>-15.824012269938651</v>
+        <v>-16.84579403435583</v>
       </c>
       <c r="S16" s="33">
         <f>R101/J106</f>
-        <v>198.40876923076922</v>
+        <v>211.22034058461537</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19">
@@ -6286,7 +6309,7 @@
       </c>
       <c r="R95" s="40" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.1577</v>
+        <v>1.0932999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20">
@@ -6363,7 +6386,7 @@
       </c>
       <c r="R97" s="38">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>9.0788985000000003E-2</v>
+        <v>8.8016565000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" customHeight="1">
@@ -6477,7 +6500,7 @@
       </c>
       <c r="R100" s="36">
         <f>R99/R103</f>
-        <v>0.15330002094334333</v>
+        <v>0.14535316087048453</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20">
@@ -6516,7 +6539,7 @@
       </c>
       <c r="R101" s="41" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>12896570000</v>
+        <v>13729322138</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20">
@@ -6555,7 +6578,7 @@
       </c>
       <c r="R102" s="36">
         <f>R101/R103</f>
-        <v>0.84669997905665662</v>
+        <v>0.85464683912951545</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20">
@@ -6594,7 +6617,7 @@
       </c>
       <c r="R103" s="42">
         <f>R99+R101</f>
-        <v>15231570000</v>
+        <v>16064322138</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="20" customHeight="1" thickBot="1">
@@ -6670,18 +6693,28 @@
         <f>(J106/I106)-1</f>
         <v>-0.25595238095238093</v>
       </c>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
+      <c r="K105" s="67">
+        <v>271300000</v>
+      </c>
+      <c r="L105" s="67">
+        <v>378800000</v>
+      </c>
+      <c r="M105" s="67">
+        <v>596300000</v>
+      </c>
+      <c r="N105" s="67">
+        <v>1344000000</v>
+      </c>
+      <c r="O105" s="67">
+        <v>1007000000</v>
+      </c>
       <c r="P105" s="15"/>
       <c r="Q105" s="26" t="s">
         <v>108</v>
       </c>
       <c r="R105" s="27">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>7.7605838397279844E-2</v>
+        <v>7.5919794409231217E-2</v>
       </c>
       <c r="S105" s="15"/>
     </row>
@@ -6762,9 +6795,9 @@
       <c r="L107" s="44"/>
       <c r="M107" s="44"/>
       <c r="N107" s="44"/>
-      <c r="O107" s="47">
-        <f>O106*(1+R107)/(R108-R107)</f>
-        <v>3830333096.8206148</v>
+      <c r="O107" s="68">
+        <f>O105*(1+R107)/(R108-R107)</f>
+        <v>20270604231.129368</v>
       </c>
       <c r="P107" s="48" t="s">
         <v>148</v>
@@ -6793,9 +6826,9 @@
         <f>N107+N106</f>
         <v>157550567.08265603</v>
       </c>
-      <c r="O108" s="47">
-        <f>O107+O106</f>
-        <v>4026916398.1855884</v>
+      <c r="O108" s="68">
+        <f>O107+O105</f>
+        <v>21277604231.129368</v>
       </c>
       <c r="P108" s="48" t="s">
         <v>144</v>
@@ -6805,7 +6838,7 @@
       </c>
       <c r="R108" s="52">
         <f>R105</f>
-        <v>7.7605838397279844E-2</v>
+        <v>7.5919794409231217E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="19">
@@ -6820,7 +6853,7 @@
       </c>
       <c r="L110" s="41">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>3151383077.677844</v>
+        <v>15139606247.171345</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20">
@@ -6847,7 +6880,7 @@
       </c>
       <c r="L113" s="41">
         <f>L110+L111-L112</f>
-        <v>3396383077.677844</v>
+        <v>15384606247.171345</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20">
@@ -6865,7 +6898,7 @@
       </c>
       <c r="L115" s="56">
         <f>L113/L114</f>
-        <v>12.589620664988395</v>
+        <v>57.027241127500872</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20">
@@ -6874,7 +6907,7 @@
       </c>
       <c r="L116" s="57" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>79.959999999999994</v>
+        <v>84.57</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20">
@@ -6883,7 +6916,7 @@
       </c>
       <c r="L117" s="59">
         <f>L115/L116-1</f>
-        <v>-0.84255101719624315</v>
+        <v>-0.32568001504669652</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20">

--- a/Technology/Software/Okta.xlsx
+++ b/Technology/Software/Okta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9C5E65-A350-C141-92E4-53CE393E8691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450DCC88-FF1A-7F46-B12E-C1A9F35FB771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,6 +1018,8 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1036,8 +1038,6 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2280,11 +2280,11 @@
     <v>Powered by Refinitiv</v>
     <v>111.35</v>
     <v>44.120399999999997</v>
-    <v>1.0932999999999999</v>
-    <v>-0.1</v>
-    <v>-1.181E-3</v>
-    <v>0.43</v>
-    <v>5.0849999999999992E-3</v>
+    <v>1.1238999999999999</v>
+    <v>3.53</v>
+    <v>4.1741E-2</v>
+    <v>0.39</v>
+    <v>4.4269999999999995E-3</v>
     <v>USD</v>
     <v>Okta, Inc. is an independent identity provider. The Company's Okta Identity Platform is an independent and neutral cloud-based identity solution that allows its customers to integrate with nearly any application, service or cloud that they choose through its secure platform and cloud infrastructure. Its Workforce Identity Cloud is used as the central system for an organization’s connectivity, access, authentication and identity lifecycle management needs spanning all of its users, technology and applications. Its Workforce Identity products include Universal Directory, Single Sign-On, Adaptive Multi-Factor Authentication, Lifecycle Management, API Access Management, Access Gateway, Advanced Server Access and Okta Identity Governance. The Company’s Customer Identity products include Universal Login, Attack Protection, Adaptive Multi-Factor Authentication, Passwordless, Machine to Machine, Private Cloud, Organizations, Actions and Extensibility, and Enterprise Connections.</v>
     <v>6013</v>
@@ -2292,24 +2292,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>100 1st St Ste 600, SAN FRANCISCO, CA, 94105-4687 US</v>
-    <v>85.73</v>
+    <v>88.76</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45071.99993825156</v>
+    <v>45072.995777082811</v>
     <v>0</v>
-    <v>83.54</v>
-    <v>13729322138</v>
+    <v>84.45</v>
+    <v>14302390000</v>
     <v>OKTA, INC.</v>
     <v>OKTA, INC.</v>
-    <v>85.41</v>
-    <v>84.67</v>
     <v>84.57</v>
-    <v>85</v>
+    <v>84.57</v>
+    <v>88.1</v>
+    <v>88.49</v>
     <v>162342700</v>
     <v>OKTA</v>
     <v>OKTA, INC. (XNAS:OKTA)</v>
-    <v>1547796</v>
-    <v>1960156</v>
+    <v>2221964</v>
+    <v>1971117</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2471,9 +2471,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2896,7 +2896,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L124" sqref="L124"/>
+      <selection pane="bottomRight" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3641,15 +3641,15 @@
       </c>
       <c r="Q16" s="32">
         <f>R101/J3</f>
-        <v>7.3893014736275564</v>
+        <v>7.6977341227125944</v>
       </c>
       <c r="R16" s="32">
         <f>R101/J28</f>
-        <v>-16.84579403435583</v>
+        <v>-17.548944785276074</v>
       </c>
       <c r="S16" s="33">
         <f>R101/J106</f>
-        <v>211.22034058461537</v>
+        <v>220.03676923076924</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19">
@@ -5837,10 +5837,10 @@
       <c r="J83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q83" s="65" t="s">
+      <c r="Q83" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="R83" s="66"/>
+      <c r="R83" s="68"/>
     </row>
     <row r="84" spans="1:18" ht="19" customHeight="1">
       <c r="A84" s="5" t="s">
@@ -5873,10 +5873,10 @@
       <c r="J84" s="1">
         <v>-6000000</v>
       </c>
-      <c r="Q84" s="61" t="s">
+      <c r="Q84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="R84" s="62"/>
+      <c r="R84" s="64"/>
     </row>
     <row r="85" spans="1:18" ht="20">
       <c r="A85" s="5" t="s">
@@ -6230,10 +6230,10 @@
       <c r="J93" s="1">
         <v>-11000000</v>
       </c>
-      <c r="Q93" s="61" t="s">
+      <c r="Q93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="R93" s="62"/>
+      <c r="R93" s="64"/>
     </row>
     <row r="94" spans="1:18" ht="20">
       <c r="A94" s="6" t="s">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="R95" s="40" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.0932999999999999</v>
+        <v>1.1238999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="R97" s="38">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>8.8016565000000005E-2</v>
+        <v>8.9333894999999997E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" customHeight="1">
@@ -6420,10 +6420,10 @@
       <c r="J98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q98" s="61" t="s">
+      <c r="Q98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="R98" s="62"/>
+      <c r="R98" s="64"/>
     </row>
     <row r="99" spans="1:19" ht="20">
       <c r="A99" s="5" t="s">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="R100" s="36">
         <f>R99/R103</f>
-        <v>0.14535316087048453</v>
+        <v>0.14034653271937486</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="R101" s="41" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>13729322138</v>
+        <v>14302390000</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="R102" s="36">
         <f>R101/R103</f>
-        <v>0.85464683912951545</v>
+        <v>0.85965346728062519</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="R103" s="42">
         <f>R99+R101</f>
-        <v>16064322138</v>
+        <v>16637390000</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="20" customHeight="1" thickBot="1">
@@ -6651,10 +6651,10 @@
       <c r="J104" s="11">
         <v>271000000</v>
       </c>
-      <c r="Q104" s="61" t="s">
+      <c r="Q104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="R104" s="62"/>
+      <c r="R104" s="64"/>
     </row>
     <row r="105" spans="1:19" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
@@ -6693,19 +6693,19 @@
         <f>(J106/I106)-1</f>
         <v>-0.25595238095238093</v>
       </c>
-      <c r="K105" s="67">
+      <c r="K105" s="61">
         <v>271300000</v>
       </c>
-      <c r="L105" s="67">
+      <c r="L105" s="61">
         <v>378800000</v>
       </c>
-      <c r="M105" s="67">
+      <c r="M105" s="61">
         <v>596300000</v>
       </c>
-      <c r="N105" s="67">
+      <c r="N105" s="61">
         <v>1344000000</v>
       </c>
-      <c r="O105" s="67">
+      <c r="O105" s="61">
         <v>1007000000</v>
       </c>
       <c r="P105" s="15"/>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="R105" s="27">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>7.5919794409231217E-2</v>
+        <v>7.746890985812413E-2</v>
       </c>
       <c r="S105" s="15"/>
     </row>
@@ -6795,9 +6795,9 @@
       <c r="L107" s="44"/>
       <c r="M107" s="44"/>
       <c r="N107" s="44"/>
-      <c r="O107" s="68">
+      <c r="O107" s="62">
         <f>O105*(1+R107)/(R108-R107)</f>
-        <v>20270604231.129368</v>
+        <v>19672125889.236118</v>
       </c>
       <c r="P107" s="48" t="s">
         <v>148</v>
@@ -6826,9 +6826,9 @@
         <f>N107+N106</f>
         <v>157550567.08265603</v>
       </c>
-      <c r="O108" s="68">
+      <c r="O108" s="62">
         <f>O107+O105</f>
-        <v>21277604231.129368</v>
+        <v>20679125889.236118</v>
       </c>
       <c r="P108" s="48" t="s">
         <v>144</v>
@@ -6838,14 +6838,14 @@
       </c>
       <c r="R108" s="52">
         <f>R105</f>
-        <v>7.5919794409231217E-2</v>
+        <v>7.746890985812413E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="19">
-      <c r="K109" s="63" t="s">
+      <c r="K109" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="L109" s="64"/>
+      <c r="L109" s="66"/>
     </row>
     <row r="110" spans="1:19" ht="20">
       <c r="K110" s="53" t="s">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="L110" s="41">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>15139606247.171345</v>
+        <v>14620229536.155462</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="L113" s="41">
         <f>L110+L111-L112</f>
-        <v>15384606247.171345</v>
+        <v>14865229536.155464</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="L115" s="56">
         <f>L113/L114</f>
-        <v>57.027241127500872</v>
+        <v>55.102029623270354</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="L116" s="57" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>84.57</v>
+        <v>88.1</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="L117" s="59">
         <f>L115/L116-1</f>
-        <v>-0.32568001504669652</v>
+        <v>-0.37455130961100613</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20">

--- a/Technology/Software/Okta.xlsx
+++ b/Technology/Software/Okta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450DCC88-FF1A-7F46-B12E-C1A9F35FB771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC9611F-BC29-7F40-8947-5B93C3590C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="163">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -537,9 +537,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Intrinsic Value</t>
   </si>
   <si>
@@ -550,6 +547,18 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Shares (5% dilution)</t>
   </si>
 </sst>
 </file>
@@ -729,7 +738,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -893,12 +902,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1018,6 +1036,11 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2278,38 +2301,35 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>111.35</v>
+    <v>110.94</v>
     <v>44.120399999999997</v>
-    <v>1.1238999999999999</v>
-    <v>3.53</v>
-    <v>4.1741E-2</v>
-    <v>0.39</v>
-    <v>4.4269999999999995E-3</v>
+    <v>1.0452999999999999</v>
+    <v>0.64</v>
+    <v>9.0969999999999992E-3</v>
     <v>USD</v>
     <v>Okta, Inc. is an independent identity provider. The Company's Okta Identity Platform is an independent and neutral cloud-based identity solution that allows its customers to integrate with nearly any application, service or cloud that they choose through its secure platform and cloud infrastructure. Its Workforce Identity Cloud is used as the central system for an organization’s connectivity, access, authentication and identity lifecycle management needs spanning all of its users, technology and applications. Its Workforce Identity products include Universal Directory, Single Sign-On, Adaptive Multi-Factor Authentication, Lifecycle Management, API Access Management, Access Gateway, Advanced Server Access and Okta Identity Governance. The Company’s Customer Identity products include Universal Login, Attack Protection, Adaptive Multi-Factor Authentication, Passwordless, Machine to Machine, Private Cloud, Organizations, Actions and Extensibility, and Enterprise Connections.</v>
-    <v>6013</v>
+    <v>5683</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>100 1st St Ste 600, SAN FRANCISCO, CA, 94105-4687 US</v>
-    <v>88.76</v>
+    <v>71.02</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.995777082811</v>
+    <v>45099.99984429375</v>
     <v>0</v>
-    <v>84.45</v>
-    <v>14302390000</v>
+    <v>68.900000000000006</v>
+    <v>11525943499</v>
     <v>OKTA, INC.</v>
     <v>OKTA, INC.</v>
-    <v>84.57</v>
-    <v>84.57</v>
-    <v>88.1</v>
-    <v>88.49</v>
-    <v>162342700</v>
+    <v>69.73</v>
+    <v>70.349999999999994</v>
+    <v>70.989999999999995</v>
+    <v>162360100</v>
     <v>OKTA</v>
     <v>OKTA, INC. (XNAS:OKTA)</v>
-    <v>2221964</v>
-    <v>1971117</v>
+    <v>3343</v>
+    <v>3475897</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2341,8 +2361,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2362,7 +2380,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2379,7 +2396,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2390,16 +2407,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2463,19 +2477,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2519,9 +2527,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2529,9 +2534,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2893,10 +2895,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K101" sqref="K101"/>
+      <selection pane="bottomRight" activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3036,13 +3038,13 @@
         <v>2565000000</v>
       </c>
       <c r="M3" s="29">
-        <v>3200000000</v>
+        <v>3127000000</v>
       </c>
       <c r="N3" s="29">
-        <v>4681000000</v>
+        <v>4605000000</v>
       </c>
       <c r="O3" s="29">
-        <v>5516000000</v>
+        <v>4870000000</v>
       </c>
       <c r="P3" s="19" t="s">
         <v>109</v>
@@ -3104,15 +3106,15 @@
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.24756335282651065</v>
+        <v>0.21910331384015591</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.46281250000000007</v>
+        <v>0.4726574992005117</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>0.17838068788720363</v>
+        <v>5.7546145494028256E-2</v>
       </c>
       <c r="P4" s="17">
         <f>(J4+I4+H4)/3</f>
@@ -3641,18 +3643,18 @@
       </c>
       <c r="Q16" s="32">
         <f>R101/J3</f>
-        <v>7.6977341227125944</v>
+        <v>6.2034141544671693</v>
       </c>
       <c r="R16" s="32">
         <f>R101/J28</f>
-        <v>-17.548944785276074</v>
+        <v>-14.14226196196319</v>
       </c>
       <c r="S16" s="33">
         <f>R101/J106</f>
-        <v>220.03676923076924</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="19">
+        <v>177.32220767692309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="19">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3684,7 +3686,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="20">
+    <row r="18" spans="1:19" ht="20">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3718,8 +3720,17 @@
       <c r="P18" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="19">
+      <c r="Q18" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="19">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3749,13 +3760,40 @@
       </c>
       <c r="J19" s="10">
         <v>-676000000</v>
+      </c>
+      <c r="K19" s="61">
+        <v>165000000</v>
+      </c>
+      <c r="L19" s="61">
+        <v>249500000</v>
+      </c>
+      <c r="M19" s="61">
+        <v>426800000</v>
+      </c>
+      <c r="N19" s="61">
+        <v>782800000</v>
+      </c>
+      <c r="O19" s="61">
+        <v>1036000000</v>
       </c>
       <c r="P19" s="34">
         <f>J40-J56-J61</f>
         <v>245000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="19" customHeight="1">
+      <c r="Q19" s="32">
+        <f>R101/K3</f>
+        <v>5.3213035544783009</v>
+      </c>
+      <c r="R19" s="32">
+        <f>R101/K28</f>
+        <v>84.377331617862367</v>
+      </c>
+      <c r="S19" s="33">
+        <f>R101/K105</f>
+        <v>42.48412642462219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="19" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -3792,8 +3830,28 @@
         <f t="shared" si="3"/>
         <v>4.0156823644180273E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="19">
+      <c r="K20" s="16">
+        <f t="shared" ref="K20" si="4">(K19/J19)-1</f>
+        <v>-1.2440828402366864</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" ref="L20" si="5">(L19/K19)-1</f>
+        <v>0.5121212121212122</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" ref="M20" si="6">(M19/L19)-1</f>
+        <v>0.71062124248497005</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" ref="N20" si="7">(N19/M19)-1</f>
+        <v>0.83411433926897849</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" ref="O20" si="8">(O19/N19)-1</f>
+        <v>0.32345426673479816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="19">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3824,8 +3882,28 @@
       <c r="J21" s="2">
         <v>-0.36380000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="19">
+      <c r="K21" s="62">
+        <f>K19/K3</f>
+        <v>7.6177285318559551E-2</v>
+      </c>
+      <c r="L21" s="62">
+        <f>L19/L3</f>
+        <v>9.7270955165692008E-2</v>
+      </c>
+      <c r="M21" s="62">
+        <f>M19/M3</f>
+        <v>0.13648864726574991</v>
+      </c>
+      <c r="N21" s="62">
+        <f>N19/N3</f>
+        <v>0.16998914223669925</v>
+      </c>
+      <c r="O21" s="62">
+        <f>O19/O3</f>
+        <v>0.21273100616016427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="19">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3857,7 +3935,7 @@
         <v>-812000000</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="19">
+    <row r="23" spans="1:19" ht="19">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3889,7 +3967,7 @@
         <v>-0.437</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="19">
+    <row r="24" spans="1:19" ht="19">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3921,7 +3999,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="19">
+    <row r="25" spans="1:19" ht="19">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3953,7 +4031,7 @@
         <v>-801000000</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="19">
+    <row r="26" spans="1:19" ht="19">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3985,7 +4063,7 @@
         <v>-0.43109999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="19">
+    <row r="27" spans="1:19" ht="19">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4017,7 +4095,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="20" thickBot="1">
+    <row r="28" spans="1:19" ht="20" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4048,8 +4126,23 @@
       <c r="J28" s="11">
         <v>-815000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="20" customHeight="1" thickTop="1">
+      <c r="K28" s="63">
+        <v>136600000</v>
+      </c>
+      <c r="L28" s="63">
+        <v>211300000</v>
+      </c>
+      <c r="M28" s="63">
+        <v>341700000</v>
+      </c>
+      <c r="N28" s="63">
+        <v>1003000000</v>
+      </c>
+      <c r="O28" s="63">
+        <v>1355000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="20" customHeight="1" thickTop="1">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -4067,27 +4160,47 @@
         <v>0.36942125998395392</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:J29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:J29" si="9">(F28/E28)-1</f>
         <v>9.7395045427119964E-2</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.66468521159868366</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.2748464671896913</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.1855391015724734</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>-3.9380677525397534E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="19">
+      <c r="K29" s="16">
+        <f t="shared" ref="K29" si="10">(K28/J28)-1</f>
+        <v>-1.1676073619631901</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" ref="L29" si="11">(L28/K28)-1</f>
+        <v>0.54685212298682284</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" ref="M29" si="12">(M28/L28)-1</f>
+        <v>0.6171320397539044</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" ref="N29" si="13">(N28/M28)-1</f>
+        <v>1.9353233830845773</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" ref="O29" si="14">(O28/N28)-1</f>
+        <v>0.35094715852442682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="19">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4118,8 +4231,28 @@
       <c r="J30" s="2">
         <v>-0.43859999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="19">
+      <c r="K30" s="64">
+        <f>K28/K3</f>
+        <v>6.3065558633425667E-2</v>
+      </c>
+      <c r="L30" s="64">
+        <f t="shared" ref="L30:O30" si="15">L28/L3</f>
+        <v>8.2378167641325536E-2</v>
+      </c>
+      <c r="M30" s="64">
+        <f t="shared" si="15"/>
+        <v>0.10927406459865686</v>
+      </c>
+      <c r="N30" s="64">
+        <f t="shared" si="15"/>
+        <v>0.21780673181324647</v>
+      </c>
+      <c r="O30" s="64">
+        <f t="shared" si="15"/>
+        <v>0.27823408624229978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="19">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4150,8 +4283,23 @@
       <c r="J31" s="12">
         <v>-5.16</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="19">
+      <c r="K31" s="65">
+        <v>0.84</v>
+      </c>
+      <c r="L31" s="65">
+        <v>1.3</v>
+      </c>
+      <c r="M31" s="65">
+        <v>2.1</v>
+      </c>
+      <c r="N31" s="65">
+        <v>6.18</v>
+      </c>
+      <c r="O31" s="65">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="19">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4257,31 +4405,31 @@
         <v>0</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:J35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:J35" si="16">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>-8.5443824347699177E-2</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.29516649800009637</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>9.0387334424765584E-2</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>8.5232168297489364E-2</v>
       </c>
       <c r="I35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.20865956041882841</v>
       </c>
       <c r="J35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>2.7751762532844247E-2</v>
       </c>
     </row>
@@ -5698,39 +5846,39 @@
         <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:J80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:J80" si="17">B79/B3</f>
         <v>0.16044867105584004</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.11444934638620834</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.10682609183788032</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.19177660679256894</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.19115650688534117</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.216057208476164</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.23482806335465584</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.43491737046810452</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.36437029063509152</v>
       </c>
       <c r="K80" s="15"/>
@@ -5837,10 +5985,10 @@
       <c r="J83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q83" s="67" t="s">
+      <c r="Q83" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="R83" s="68"/>
+      <c r="R83" s="73"/>
     </row>
     <row r="84" spans="1:18" ht="19" customHeight="1">
       <c r="A84" s="5" t="s">
@@ -5873,10 +6021,10 @@
       <c r="J84" s="1">
         <v>-6000000</v>
       </c>
-      <c r="Q84" s="63" t="s">
+      <c r="Q84" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="R84" s="64"/>
+      <c r="R84" s="69"/>
     </row>
     <row r="85" spans="1:18" ht="20">
       <c r="A85" s="5" t="s">
@@ -6039,39 +6187,39 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:J89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:J89" si="18">(-1*B88)/B3</f>
         <v>2.8822238478419897E-2</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>4.7644545846089376E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>3.9001783865374298E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>2.5193276664487094E-2</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>4.9620041377168418E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>2.6348523291705554E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>1.5660311410732753E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>9.4677669068090244E-3</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>6.4585575888051671E-3</v>
       </c>
       <c r="Q89" s="24" t="s">
@@ -6230,10 +6378,10 @@
       <c r="J93" s="1">
         <v>-11000000</v>
       </c>
-      <c r="Q93" s="63" t="s">
+      <c r="Q93" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="R93" s="64"/>
+      <c r="R93" s="69"/>
     </row>
     <row r="94" spans="1:18" ht="20">
       <c r="A94" s="6" t="s">
@@ -6309,7 +6457,7 @@
       </c>
       <c r="R95" s="40" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.1238999999999999</v>
+        <v>1.0452999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20">
@@ -6386,7 +6534,7 @@
       </c>
       <c r="R97" s="38">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>8.9333894999999997E-2</v>
+        <v>8.5950164999999995E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" customHeight="1">
@@ -6420,10 +6568,10 @@
       <c r="J98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q98" s="63" t="s">
+      <c r="Q98" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="R98" s="64"/>
+      <c r="R98" s="69"/>
     </row>
     <row r="99" spans="1:19" ht="20">
       <c r="A99" s="5" t="s">
@@ -6500,7 +6648,7 @@
       </c>
       <c r="R100" s="36">
         <f>R99/R103</f>
-        <v>0.14034653271937486</v>
+        <v>0.16845895087650123</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20">
@@ -6539,7 +6687,7 @@
       </c>
       <c r="R101" s="41" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>14302390000</v>
+        <v>11525943499</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20">
@@ -6578,7 +6726,7 @@
       </c>
       <c r="R102" s="36">
         <f>R101/R103</f>
-        <v>0.85965346728062519</v>
+        <v>0.8315410491234988</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20">
@@ -6617,7 +6765,7 @@
       </c>
       <c r="R103" s="42">
         <f>R99+R101</f>
-        <v>16637390000</v>
+        <v>13860943499</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="20" customHeight="1" thickBot="1">
@@ -6651,10 +6799,10 @@
       <c r="J104" s="11">
         <v>271000000</v>
       </c>
-      <c r="Q104" s="63" t="s">
+      <c r="Q104" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="R104" s="64"/>
+      <c r="R104" s="69"/>
     </row>
     <row r="105" spans="1:19" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
@@ -6682,7 +6830,7 @@
         <v>-4.6961281708945259</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105" si="19">(H106/G106)-1</f>
         <v>2.9948706834272505</v>
       </c>
       <c r="I105" s="15">
@@ -6693,19 +6841,19 @@
         <f>(J106/I106)-1</f>
         <v>-0.25595238095238093</v>
       </c>
-      <c r="K105" s="61">
+      <c r="K105" s="66">
         <v>271300000</v>
       </c>
-      <c r="L105" s="61">
+      <c r="L105" s="66">
         <v>378800000</v>
       </c>
-      <c r="M105" s="61">
+      <c r="M105" s="66">
         <v>596300000</v>
       </c>
-      <c r="N105" s="61">
-        <v>1344000000</v>
-      </c>
-      <c r="O105" s="61">
+      <c r="N105" s="66">
+        <v>780000000</v>
+      </c>
+      <c r="O105" s="66">
         <v>1007000000</v>
       </c>
       <c r="P105" s="15"/>
@@ -6714,7 +6862,7 @@
       </c>
       <c r="R105" s="27">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>7.746890985812413E-2</v>
+        <v>7.2278557752393377E-2</v>
       </c>
       <c r="S105" s="15"/>
     </row>
@@ -6751,23 +6899,23 @@
       </c>
       <c r="K106" s="43">
         <f>J106*(1+$R$106)</f>
-        <v>81103577.253514871</v>
+        <v>79290732.685187638</v>
       </c>
       <c r="L106" s="43">
-        <f t="shared" ref="L106:O106" si="9">K106*(1+$R$106)</f>
-        <v>101196772.97410546</v>
+        <f t="shared" ref="L106:O106" si="20">K106*(1+$R$106)</f>
+        <v>96723389.073136657</v>
       </c>
       <c r="M106" s="43">
-        <f t="shared" si="9"/>
-        <v>126268004.5340272</v>
+        <f t="shared" si="20"/>
+        <v>117988744.42159195</v>
       </c>
       <c r="N106" s="43">
-        <f t="shared" si="9"/>
-        <v>157550567.08265603</v>
+        <f t="shared" si="20"/>
+        <v>143929446.05835956</v>
       </c>
       <c r="O106" s="43">
-        <f t="shared" si="9"/>
-        <v>196583301.3649734</v>
+        <f t="shared" si="20"/>
+        <v>175573403.58370033</v>
       </c>
       <c r="P106" s="44" t="s">
         <v>146</v>
@@ -6777,7 +6925,7 @@
       </c>
       <c r="R106" s="46">
         <f>(SUM(K4:O4)/5)</f>
-        <v>0.24774734236176726</v>
+        <v>0.21985742592596358</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="19">
@@ -6795,9 +6943,9 @@
       <c r="L107" s="44"/>
       <c r="M107" s="44"/>
       <c r="N107" s="44"/>
-      <c r="O107" s="62">
+      <c r="O107" s="67">
         <f>O105*(1+R107)/(R108-R107)</f>
-        <v>19672125889.236118</v>
+        <v>21831778486.257828</v>
       </c>
       <c r="P107" s="48" t="s">
         <v>148</v>
@@ -6811,24 +6959,24 @@
     </row>
     <row r="108" spans="1:19" ht="19">
       <c r="K108" s="47">
-        <f t="shared" ref="K108:M108" si="10">K107+K106</f>
-        <v>81103577.253514871</v>
+        <f t="shared" ref="K108:M108" si="21">K107+K106</f>
+        <v>79290732.685187638</v>
       </c>
       <c r="L108" s="47">
-        <f t="shared" si="10"/>
-        <v>101196772.97410546</v>
+        <f t="shared" si="21"/>
+        <v>96723389.073136657</v>
       </c>
       <c r="M108" s="47">
-        <f t="shared" si="10"/>
-        <v>126268004.5340272</v>
+        <f t="shared" si="21"/>
+        <v>117988744.42159195</v>
       </c>
       <c r="N108" s="47">
         <f>N107+N106</f>
-        <v>157550567.08265603</v>
-      </c>
-      <c r="O108" s="62">
+        <v>143929446.05835956</v>
+      </c>
+      <c r="O108" s="67">
         <f>O107+O105</f>
-        <v>20679125889.236118</v>
+        <v>22838778486.257828</v>
       </c>
       <c r="P108" s="48" t="s">
         <v>144</v>
@@ -6838,14 +6986,14 @@
       </c>
       <c r="R108" s="52">
         <f>R105</f>
-        <v>7.746890985812413E-2</v>
+        <v>7.2278557752393377E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="19">
-      <c r="K109" s="65" t="s">
+      <c r="K109" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="L109" s="66"/>
+      <c r="L109" s="71"/>
     </row>
     <row r="110" spans="1:19" ht="20">
       <c r="K110" s="53" t="s">
@@ -6853,7 +7001,7 @@
       </c>
       <c r="L110" s="41">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>14620229536.155462</v>
+        <v>16474098404.655106</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20">
@@ -6880,52 +7028,52 @@
       </c>
       <c r="L113" s="41">
         <f>L110+L111-L112</f>
-        <v>14865229536.155464</v>
+        <v>16719098404.655106</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20">
       <c r="K114" s="53" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L114" s="54">
-        <f>J34*(1+(5*P16))</f>
-        <v>269776442.6789403</v>
+        <f>J34*(1+(5*0.05))</f>
+        <v>197528750</v>
       </c>
     </row>
     <row r="115" spans="11:12" ht="20">
       <c r="K115" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L115" s="56">
         <f>L113/L114</f>
-        <v>55.102029623270354</v>
+        <v>84.64134160042579</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20">
       <c r="K116" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L116" s="57" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>88.1</v>
+        <v>70.989999999999995</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20">
       <c r="K117" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L117" s="59">
         <f>L115/L116-1</f>
-        <v>-0.37455130961100613</v>
+        <v>0.19229950134421459</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20">
       <c r="K118" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L118" s="60" t="str">
         <f>IF(L115&gt;L116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>

--- a/Technology/Software/Okta.xlsx
+++ b/Technology/Software/Okta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC9611F-BC29-7F40-8947-5B93C3590C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA016CFF-E116-ED49-BF90-2CBCE13BCB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2303,9 +2303,9 @@
     <v>Powered by Refinitiv</v>
     <v>110.94</v>
     <v>44.120399999999997</v>
-    <v>1.0452999999999999</v>
-    <v>0.64</v>
-    <v>9.0969999999999992E-3</v>
+    <v>1.018</v>
+    <v>-0.04</v>
+    <v>-5.8330000000000003E-4</v>
     <v>USD</v>
     <v>Okta, Inc. is an independent identity provider. The Company's Okta Identity Platform is an independent and neutral cloud-based identity solution that allows its customers to integrate with nearly any application, service or cloud that they choose through its secure platform and cloud infrastructure. Its Workforce Identity Cloud is used as the central system for an organization’s connectivity, access, authentication and identity lifecycle management needs spanning all of its users, technology and applications. Its Workforce Identity products include Universal Directory, Single Sign-On, Adaptive Multi-Factor Authentication, Lifecycle Management, API Access Management, Access Gateway, Advanced Server Access and Okta Identity Governance. The Company’s Customer Identity products include Universal Login, Attack Protection, Adaptive Multi-Factor Authentication, Passwordless, Machine to Machine, Private Cloud, Organizations, Actions and Extensibility, and Enterprise Connections.</v>
     <v>5683</v>
@@ -2313,23 +2313,23 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>100 1st St Ste 600, SAN FRANCISCO, CA, 94105-4687 US</v>
-    <v>71.02</v>
+    <v>69.61</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.99984429375</v>
+    <v>45114.999899918752</v>
     <v>0</v>
-    <v>68.900000000000006</v>
-    <v>11525943499</v>
+    <v>68.41</v>
+    <v>11126540000</v>
     <v>OKTA, INC.</v>
     <v>OKTA, INC.</v>
-    <v>69.73</v>
-    <v>70.349999999999994</v>
-    <v>70.989999999999995</v>
+    <v>69.09</v>
+    <v>68.569999999999993</v>
+    <v>68.53</v>
     <v>162360100</v>
     <v>OKTA</v>
     <v>OKTA, INC. (XNAS:OKTA)</v>
-    <v>3343</v>
-    <v>3475897</v>
+    <v>153</v>
+    <v>3515523</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2895,10 +2895,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I112" sqref="I112"/>
+      <selection pane="bottomRight" activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3643,15 +3643,15 @@
       </c>
       <c r="Q16" s="32">
         <f>R101/J3</f>
-        <v>6.2034141544671693</v>
+        <v>5.9884499461786866</v>
       </c>
       <c r="R16" s="32">
         <f>R101/J28</f>
-        <v>-14.14226196196319</v>
+        <v>-13.652196319018405</v>
       </c>
       <c r="S16" s="33">
         <f>R101/J106</f>
-        <v>177.32220767692309</v>
+        <v>171.17753846153846</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19">
@@ -3782,15 +3782,15 @@
       </c>
       <c r="Q19" s="32">
         <f>R101/K3</f>
-        <v>5.3213035544783009</v>
+        <v>5.1369067405355491</v>
       </c>
       <c r="R19" s="32">
         <f>R101/K28</f>
-        <v>84.377331617862367</v>
+        <v>81.453440702781847</v>
       </c>
       <c r="S19" s="33">
         <f>R101/K105</f>
-        <v>42.48412642462219</v>
+        <v>41.011942499078508</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="R95" s="40" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.0452999999999999</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="R97" s="38">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>8.5950164999999995E-2</v>
+        <v>8.4774900000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" customHeight="1">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="R100" s="36">
         <f>R99/R103</f>
-        <v>0.16845895087650123</v>
+        <v>0.17345712303347166</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="R101" s="41" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11525943499</v>
+        <v>11126540000</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20">
@@ -6726,7 +6726,7 @@
       </c>
       <c r="R102" s="36">
         <f>R101/R103</f>
-        <v>0.8315410491234988</v>
+        <v>0.82654287696652839</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="R103" s="42">
         <f>R99+R101</f>
-        <v>13860943499</v>
+        <v>13461540000</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="20" customHeight="1" thickBot="1">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="R105" s="27">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>7.2278557752393377E-2</v>
+        <v>7.0901514649988479E-2</v>
       </c>
       <c r="S105" s="15"/>
     </row>
@@ -6945,7 +6945,7 @@
       <c r="N107" s="44"/>
       <c r="O107" s="67">
         <f>O105*(1+R107)/(R108-R107)</f>
-        <v>21831778486.257828</v>
+        <v>22486730729.271458</v>
       </c>
       <c r="P107" s="48" t="s">
         <v>148</v>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="O108" s="67">
         <f>O107+O105</f>
-        <v>22838778486.257828</v>
+        <v>23493730729.271458</v>
       </c>
       <c r="P108" s="48" t="s">
         <v>144</v>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="R108" s="52">
         <f>R105</f>
-        <v>7.2278557752393377E-2</v>
+        <v>7.0901514649988479E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="19">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="L110" s="41">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>16474098404.655106</v>
+        <v>17044203495.864441</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="L113" s="41">
         <f>L110+L111-L112</f>
-        <v>16719098404.655106</v>
+        <v>17289203495.864441</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="L115" s="56">
         <f>L113/L114</f>
-        <v>84.64134160042579</v>
+        <v>87.527529515903083</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="L116" s="57" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>70.989999999999995</v>
+        <v>68.53</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="L117" s="59">
         <f>L115/L116-1</f>
-        <v>0.19229950134421459</v>
+        <v>0.27721478937550104</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20">

--- a/Technology/Software/Okta.xlsx
+++ b/Technology/Software/Okta.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA016CFF-E116-ED49-BF90-2CBCE13BCB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC95096F-C59F-C14F-849A-79B78DA2FD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -559,18 +553,41 @@
   </si>
   <si>
     <t>Shares (5% dilution)</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -695,7 +712,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,8 +754,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -844,62 +867,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -916,7 +886,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -961,105 +931,95 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="17" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1111,19 +1071,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>OKTA</a:t>
+              <a:t>Okta</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.46072131147540984"/>
-          <c:y val="1.9623877400040554E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1157,10 +1109,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8413114754098359E-2"/>
-          <c:y val="0.1123576002693433"/>
-          <c:w val="0.87175081967213119"/>
-          <c:h val="0.78980595367494444"/>
+          <c:x val="8.6708401976935731E-2"/>
+          <c:y val="0.16717268656780185"/>
+          <c:w val="0.85134761120263602"/>
+          <c:h val="0.67048651610505117"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1214,6 +1166,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$J$3</c:f>
@@ -1252,7 +1240,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-08E2-2D4C-BDFB-B7B3B720DC4A}"/>
+              <c16:uniqueId val="{00000000-3882-0F4E-B331-86CD86DA00B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1261,11 +1249,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1303,45 +1291,81 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$J$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-57058000</c:v>
+                  <c:v>-59111000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-73118000</c:v>
+                  <c:v>-76302000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-78516000</c:v>
+                  <c:v>-83509000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-107679000</c:v>
+                  <c:v>-114359000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-102441000</c:v>
+                  <c:v>-125497000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-165500000</c:v>
+                  <c:v>-208913000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-156666000</c:v>
+                  <c:v>-266332000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-649902000</c:v>
+                  <c:v>-848411000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-676000000</c:v>
+                  <c:v>-815000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-08E2-2D4C-BDFB-B7B3B720DC4A}"/>
+              <c16:uniqueId val="{00000001-3882-0F4E-B331-86CD86DA00B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1350,11 +1374,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1392,9 +1416,45 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$J$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$J$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1430,7 +1490,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-08E2-2D4C-BDFB-B7B3B720DC4A}"/>
+              <c16:uniqueId val="{00000002-3882-0F4E-B331-86CD86DA00B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1444,11 +1504,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1463778560"/>
-        <c:axId val="1463780288"/>
+        <c:axId val="1306834191"/>
+        <c:axId val="1306835919"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1463778560"/>
+        <c:axId val="1306834191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1536,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1488,7 +1548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1463780288"/>
+        <c:crossAx val="1306835919"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +1556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1463780288"/>
+        <c:axId val="1306835919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1463778560"/>
+        <c:crossAx val="1306834191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,10 +1622,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34971514134503678"/>
-          <c:y val="0.92913926033949135"/>
-          <c:w val="0.30056971730992643"/>
-          <c:h val="4.4695569793787901E-2"/>
+          <c:x val="0.34362671717106208"/>
+          <c:y val="0.8863975975937487"/>
+          <c:w val="0.31274646188172112"/>
+          <c:h val="6.9515919199169426E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2145,22 +2205,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1603375</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:colOff>1555749</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BFE17F3-BF60-F2A0-281D-124A90B655E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA34D21-D418-9A6E-D939-1B19CDE7BCBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,6 +2239,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2895,10 +3009,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J106" sqref="J106"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2939,19 +3053,19 @@
       <c r="J1" s="8">
         <v>2023</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="24">
         <v>2024</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="24">
         <v>2025</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="24">
         <v>2026</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="24">
         <v>2027</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="24">
         <v>2028</v>
       </c>
     </row>
@@ -2960,37 +3074,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -3031,37 +3145,37 @@
       <c r="J3" s="1">
         <v>1858000000</v>
       </c>
-      <c r="K3" s="29">
-        <v>2166000000</v>
-      </c>
-      <c r="L3" s="29">
-        <v>2565000000</v>
-      </c>
-      <c r="M3" s="29">
-        <v>3127000000</v>
-      </c>
-      <c r="N3" s="29">
-        <v>4605000000</v>
-      </c>
-      <c r="O3" s="29">
-        <v>4870000000</v>
+      <c r="K3" s="25">
+        <v>2180000000</v>
+      </c>
+      <c r="L3" s="25">
+        <v>2572000000</v>
+      </c>
+      <c r="M3" s="25">
+        <v>3081000000</v>
+      </c>
+      <c r="N3" s="25">
+        <v>4659000000</v>
+      </c>
+      <c r="O3" s="25">
+        <v>4916000000</v>
       </c>
       <c r="P3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="S3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3098,23 +3212,23 @@
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.16576964477933265</v>
+        <v>0.17330462863293872</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18421052631578938</v>
+        <v>0.17981651376146779</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21910331384015591</v>
+        <v>0.19790046656298599</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.4726574992005117</v>
+        <v>0.51217137293086656</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="0"/>
-        <v>5.7546145494028256E-2</v>
+        <v>5.516205194247692E-2</v>
       </c>
       <c r="P4" s="17">
         <f>(J4+I4+H4)/3</f>
@@ -3129,7 +3243,7 @@
         <v>0.8070016304122557</v>
       </c>
       <c r="S4" s="17">
-        <f>(J105+I105+H105)/3</f>
+        <f>(J106+I106+H106)/3</f>
         <v>0.84294485759898274</v>
       </c>
       <c r="AE4" s="16"/>
@@ -3203,16 +3317,16 @@
         <v>1312000000</v>
       </c>
       <c r="P6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="S6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19">
@@ -3259,7 +3373,7 @@
         <v>-0.43859999999999999</v>
       </c>
       <c r="S7" s="21">
-        <f>J106/J3</f>
+        <f>J107/J3</f>
         <v>3.4983853606027987E-2</v>
       </c>
     </row>
@@ -3294,11 +3408,11 @@
       <c r="J8" s="1">
         <v>620000000</v>
       </c>
-      <c r="K8" s="30"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3337,16 +3451,16 @@
         <v>0.33369214208826697</v>
       </c>
       <c r="P9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="R9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="S9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="S9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19">
@@ -3461,21 +3575,21 @@
         <v>1475000000</v>
       </c>
       <c r="P12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="S12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3535,28 +3649,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1">
         <v>29000000</v>
@@ -3594,16 +3708,16 @@
         <v>2124000000</v>
       </c>
       <c r="P15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="S15" s="20" t="s">
         <v>122</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19">
@@ -3637,20 +3751,20 @@
       <c r="J16" s="1">
         <v>2670000000</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P16" s="27">
         <f>(J35+I35+H35+G35+F35)/5</f>
         <v>0.14143946473480479</v>
       </c>
-      <c r="Q16" s="32">
+      <c r="Q16" s="41">
         <f>R101/J3</f>
         <v>5.9884499461786866</v>
       </c>
-      <c r="R16" s="32">
+      <c r="R16" s="41">
         <f>R101/J28</f>
         <v>-13.652196319018405</v>
       </c>
-      <c r="S16" s="33">
-        <f>R101/J106</f>
+      <c r="S16" s="42">
+        <f>R101/J107</f>
         <v>171.17753846153846</v>
       </c>
     </row>
@@ -3659,16 +3773,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1">
         <v>15072000</v>
@@ -3718,16 +3832,16 @@
         <v>114000000</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S18" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="19">
@@ -3761,41 +3875,41 @@
       <c r="J19" s="10">
         <v>-676000000</v>
       </c>
-      <c r="K19" s="61">
-        <v>165000000</v>
-      </c>
-      <c r="L19" s="61">
-        <v>249500000</v>
-      </c>
-      <c r="M19" s="61">
-        <v>426800000</v>
-      </c>
-      <c r="N19" s="61">
+      <c r="K19" s="32">
+        <v>186900000</v>
+      </c>
+      <c r="L19" s="32">
+        <v>278300000</v>
+      </c>
+      <c r="M19" s="32">
+        <v>425000000</v>
+      </c>
+      <c r="N19" s="32">
         <v>782800000</v>
       </c>
-      <c r="O19" s="61">
+      <c r="O19" s="32">
         <v>1036000000</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="28">
         <f>J40-J56-J61</f>
         <v>245000000</v>
       </c>
-      <c r="Q19" s="32">
+      <c r="Q19" s="41">
         <f>R101/K3</f>
-        <v>5.1369067405355491</v>
-      </c>
-      <c r="R19" s="32">
+        <v>5.1039174311926603</v>
+      </c>
+      <c r="R19" s="41">
         <f>R101/K28</f>
-        <v>81.453440702781847</v>
-      </c>
-      <c r="S19" s="33">
+        <v>68.093880048959605</v>
+      </c>
+      <c r="S19" s="42">
         <f>R101/K105</f>
-        <v>41.011942499078508</v>
+        <v>-20.451539488188796</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3832,26 +3946,26 @@
       </c>
       <c r="K20" s="16">
         <f t="shared" ref="K20" si="4">(K19/J19)-1</f>
-        <v>-1.2440828402366864</v>
+        <v>-1.2764792899408284</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" ref="L20" si="5">(L19/K19)-1</f>
-        <v>0.5121212121212122</v>
+        <v>0.48903156768325307</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" ref="M20" si="6">(M19/L19)-1</f>
-        <v>0.71062124248497005</v>
+        <v>0.52712899748472863</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" ref="N20" si="7">(N19/M19)-1</f>
-        <v>0.83411433926897849</v>
+        <v>0.84188235294117653</v>
       </c>
       <c r="O20" s="16">
         <f t="shared" ref="O20" si="8">(O19/N19)-1</f>
         <v>0.32345426673479816</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19">
+    <row r="21" spans="1:19" ht="20">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3882,25 +3996,31 @@
       <c r="J21" s="2">
         <v>-0.36380000000000001</v>
       </c>
-      <c r="K21" s="62">
+      <c r="K21" s="33">
         <f>K19/K3</f>
-        <v>7.6177285318559551E-2</v>
-      </c>
-      <c r="L21" s="62">
+        <v>8.5733944954128435E-2</v>
+      </c>
+      <c r="L21" s="33">
         <f>L19/L3</f>
-        <v>9.7270955165692008E-2</v>
-      </c>
-      <c r="M21" s="62">
+        <v>0.10820373250388803</v>
+      </c>
+      <c r="M21" s="33">
         <f>M19/M3</f>
-        <v>0.13648864726574991</v>
-      </c>
-      <c r="N21" s="62">
+        <v>0.1379422265498215</v>
+      </c>
+      <c r="N21" s="33">
         <f>N19/N3</f>
-        <v>0.16998914223669925</v>
-      </c>
-      <c r="O21" s="62">
+        <v>0.16801888817342778</v>
+      </c>
+      <c r="O21" s="33">
         <f>O19/O3</f>
-        <v>0.21273100616016427</v>
+        <v>0.21074043938161108</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="19">
@@ -3934,6 +4054,14 @@
       <c r="J22" s="10">
         <v>-812000000</v>
       </c>
+      <c r="R22" s="39">
+        <f>(-1*J98)/R101</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="40">
+        <f>J107/R101</f>
+        <v>5.841887954386539E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="19">
       <c r="A23" s="5" t="s">
@@ -4126,25 +4254,25 @@
       <c r="J28" s="11">
         <v>-815000000</v>
       </c>
-      <c r="K28" s="63">
-        <v>136600000</v>
-      </c>
-      <c r="L28" s="63">
-        <v>211300000</v>
-      </c>
-      <c r="M28" s="63">
-        <v>341700000</v>
-      </c>
-      <c r="N28" s="63">
-        <v>1003000000</v>
-      </c>
-      <c r="O28" s="63">
-        <v>1355000000</v>
+      <c r="K28" s="34">
+        <v>163400000</v>
+      </c>
+      <c r="L28" s="34">
+        <v>229200000</v>
+      </c>
+      <c r="M28" s="34">
+        <v>354000000</v>
+      </c>
+      <c r="N28" s="34">
+        <v>1045000000</v>
+      </c>
+      <c r="O28" s="34">
+        <v>1408000000</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="20" customHeight="1" thickTop="1">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4181,23 +4309,23 @@
       </c>
       <c r="K29" s="16">
         <f t="shared" ref="K29" si="10">(K28/J28)-1</f>
-        <v>-1.1676073619631901</v>
+        <v>-1.2004907975460122</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" ref="L29" si="11">(L28/K28)-1</f>
-        <v>0.54685212298682284</v>
+        <v>0.40269277845777229</v>
       </c>
       <c r="M29" s="16">
         <f t="shared" ref="M29" si="12">(M28/L28)-1</f>
-        <v>0.6171320397539044</v>
+        <v>0.54450261780104703</v>
       </c>
       <c r="N29" s="16">
         <f t="shared" ref="N29" si="13">(N28/M28)-1</f>
-        <v>1.9353233830845773</v>
+        <v>1.9519774011299433</v>
       </c>
       <c r="O29" s="16">
         <f t="shared" ref="O29" si="14">(O28/N28)-1</f>
-        <v>0.35094715852442682</v>
+        <v>0.34736842105263155</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="19">
@@ -4231,25 +4359,25 @@
       <c r="J30" s="2">
         <v>-0.43859999999999999</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="35">
         <f>K28/K3</f>
-        <v>6.3065558633425667E-2</v>
-      </c>
-      <c r="L30" s="64">
+        <v>7.4954128440366974E-2</v>
+      </c>
+      <c r="L30" s="35">
         <f t="shared" ref="L30:O30" si="15">L28/L3</f>
-        <v>8.2378167641325536E-2</v>
-      </c>
-      <c r="M30" s="64">
+        <v>8.9113530326594095E-2</v>
+      </c>
+      <c r="M30" s="35">
         <f t="shared" si="15"/>
-        <v>0.10927406459865686</v>
-      </c>
-      <c r="N30" s="64">
+        <v>0.11489776046738072</v>
+      </c>
+      <c r="N30" s="35">
         <f t="shared" si="15"/>
-        <v>0.21780673181324647</v>
-      </c>
-      <c r="O30" s="64">
+        <v>0.22429705945481862</v>
+      </c>
+      <c r="O30" s="35">
         <f t="shared" si="15"/>
-        <v>0.27823408624229978</v>
+        <v>0.28641171684296174</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="19">
@@ -4283,20 +4411,20 @@
       <c r="J31" s="12">
         <v>-5.16</v>
       </c>
-      <c r="K31" s="65">
-        <v>0.84</v>
-      </c>
-      <c r="L31" s="65">
-        <v>1.3</v>
-      </c>
-      <c r="M31" s="65">
-        <v>2.1</v>
-      </c>
-      <c r="N31" s="65">
-        <v>6.18</v>
-      </c>
-      <c r="O31" s="65">
-        <v>8.34</v>
+      <c r="K31" s="36">
+        <v>1.01</v>
+      </c>
+      <c r="L31" s="36">
+        <v>1.41</v>
+      </c>
+      <c r="M31" s="36">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="N31" s="36">
+        <v>6.44</v>
+      </c>
+      <c r="O31" s="36">
+        <v>8.67</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="19">
@@ -4397,7 +4525,7 @@
     </row>
     <row r="35" spans="1:10" ht="20" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -4438,31 +4566,31 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="21">
@@ -4470,31 +4598,31 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="19">
@@ -4630,31 +4758,31 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="19">
@@ -4854,31 +4982,31 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="19">
@@ -4886,31 +5014,31 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="19">
@@ -4982,31 +5110,31 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20" thickBot="1">
@@ -5078,16 +5206,16 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1">
         <v>271628000</v>
@@ -5110,22 +5238,22 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1">
         <v>2462000</v>
@@ -5134,7 +5262,7 @@
         <v>7423000</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="19">
@@ -5238,19 +5366,19 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1">
         <v>837002000</v>
@@ -5326,7 +5454,7 @@
         <v>9416000</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="19">
@@ -5398,31 +5526,31 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="19">
@@ -5486,7 +5614,7 @@
         <v>16000</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="19">
@@ -5654,31 +5782,31 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="21">
@@ -5686,31 +5814,31 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="19">
@@ -5782,13 +5910,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1">
         <v>-534000</v>
@@ -5843,7 +5971,7 @@
     </row>
     <row r="80" spans="1:18" ht="19">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
         <f t="shared" ref="B80:J80" si="17">B79/B3</f>
@@ -5959,36 +6087,36 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q83" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="R83" s="73"/>
+        <v>91</v>
+      </c>
+      <c r="Q83" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="R83" s="44"/>
     </row>
     <row r="84" spans="1:18" ht="19" customHeight="1">
       <c r="A84" s="5" t="s">
@@ -6021,10 +6149,10 @@
       <c r="J84" s="1">
         <v>-6000000</v>
       </c>
-      <c r="Q84" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="R84" s="69"/>
+      <c r="Q84" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="R84" s="45"/>
     </row>
     <row r="85" spans="1:18" ht="20">
       <c r="A85" s="5" t="s">
@@ -6055,12 +6183,12 @@
         <v>296117000</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q85" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="R85" s="25">
+        <v>91</v>
+      </c>
+      <c r="Q85" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="R85" s="47">
         <f>J17</f>
         <v>11000000</v>
       </c>
@@ -6094,12 +6222,12 @@
         <v>144497000</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q86" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="R86" s="25">
+        <v>91</v>
+      </c>
+      <c r="Q86" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="R86" s="47">
         <f>J56</f>
         <v>0</v>
       </c>
@@ -6135,10 +6263,10 @@
       <c r="J87" s="10">
         <v>86000000</v>
       </c>
-      <c r="Q87" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="R87" s="25">
+      <c r="Q87" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="R87" s="47">
         <f>J61</f>
         <v>2335000000</v>
       </c>
@@ -6174,17 +6302,17 @@
       <c r="J88" s="1">
         <v>-12000000</v>
       </c>
-      <c r="Q88" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="R88" s="36">
+      <c r="Q88" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="R88" s="49">
         <f>R85/(R86+R87)</f>
         <v>4.7109207708779443E-3</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="20" customHeight="1">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:J89" si="18">(-1*B88)/B3</f>
@@ -6222,10 +6350,10 @@
         <f t="shared" si="18"/>
         <v>6.4585575888051671E-3</v>
       </c>
-      <c r="Q89" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="R89" s="25">
+      <c r="Q89" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="R89" s="47">
         <f>J27</f>
         <v>14000000</v>
       </c>
@@ -6238,13 +6366,13 @@
         <v>-3200000</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>-15632000</v>
@@ -6253,7 +6381,7 @@
         <v>-44283000</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1">
         <v>-215175000</v>
@@ -6261,10 +6389,10 @@
       <c r="J90" s="1">
         <v>-4000000</v>
       </c>
-      <c r="Q90" s="24" t="s">
+      <c r="Q90" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="R90" s="25">
+      <c r="R90" s="47">
         <f>J25</f>
         <v>-801000000</v>
       </c>
@@ -6280,7 +6408,7 @@
         <v>-46360000</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1">
         <v>-129086000</v>
@@ -6300,10 +6428,10 @@
       <c r="J91" s="1">
         <v>-1411000000</v>
       </c>
-      <c r="Q91" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="R91" s="36">
+      <c r="Q91" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="R91" s="49">
         <f>R89/R90</f>
         <v>-1.7478152309612985E-2</v>
       </c>
@@ -6339,10 +6467,10 @@
       <c r="J92" s="1">
         <v>1308000000</v>
       </c>
-      <c r="Q92" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="R92" s="38">
+      <c r="Q92" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="R92" s="49">
         <f>R88*(1-R91)</f>
         <v>4.7932589616298685E-3</v>
       </c>
@@ -6378,10 +6506,10 @@
       <c r="J93" s="1">
         <v>-11000000</v>
       </c>
-      <c r="Q93" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="R93" s="69"/>
+      <c r="Q93" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="R93" s="45"/>
     </row>
     <row r="94" spans="1:18" ht="20">
       <c r="A94" s="6" t="s">
@@ -6414,11 +6542,12 @@
       <c r="J94" s="10">
         <v>-130000000</v>
       </c>
-      <c r="Q94" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="R94" s="39">
-        <v>4.095E-2</v>
+      <c r="Q94" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="R94" s="50">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20">
@@ -6426,7 +6555,7 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1">
         <v>-213000</v>
@@ -6435,10 +6564,10 @@
         <v>-396000</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1">
         <v>-224414000</v>
@@ -6450,12 +6579,12 @@
         <v>-26000</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q95" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="R95" s="40" cm="1">
+        <v>91</v>
+      </c>
+      <c r="Q95" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="R95" s="51" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
         <v>1.018</v>
       </c>
@@ -6465,36 +6594,36 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>199948000</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q96" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="R96" s="39">
+        <v>91</v>
+      </c>
+      <c r="Q96" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="R96" s="52">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6503,38 +6632,38 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q97" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="R97" s="38">
+        <v>91</v>
+      </c>
+      <c r="Q97" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="R97" s="49">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>8.4774900000000014E-2</v>
+        <v>8.4807840000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" customHeight="1">
@@ -6542,36 +6671,36 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q98" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="R98" s="69"/>
+        <v>91</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="R98" s="45"/>
     </row>
     <row r="99" spans="1:19" ht="20">
       <c r="A99" s="5" t="s">
@@ -6604,10 +6733,10 @@
       <c r="J99" s="1">
         <v>48000000</v>
       </c>
-      <c r="Q99" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="R99" s="25">
+      <c r="Q99" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="R99" s="47">
         <f>R86+R87</f>
         <v>2335000000</v>
       </c>
@@ -6643,10 +6772,10 @@
       <c r="J100" s="10">
         <v>48000000</v>
       </c>
-      <c r="Q100" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="R100" s="36">
+      <c r="Q100" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="R100" s="49">
         <f>R99/R103</f>
         <v>0.17345712303347166</v>
       </c>
@@ -6682,10 +6811,10 @@
       <c r="J101" s="1">
         <v>-6000000</v>
       </c>
-      <c r="Q101" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="R101" s="41" cm="1">
+      <c r="Q101" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="R101" s="53" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
         <v>11126540000</v>
       </c>
@@ -6721,10 +6850,10 @@
       <c r="J102" s="10">
         <v>-1656000</v>
       </c>
-      <c r="Q102" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="R102" s="36">
+      <c r="Q102" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="R102" s="49">
         <f>R101/R103</f>
         <v>0.82654287696652839</v>
       </c>
@@ -6760,10 +6889,10 @@
       <c r="J103" s="1">
         <v>272656000</v>
       </c>
-      <c r="Q103" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="R103" s="42">
+      <c r="Q103" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="R103" s="54">
         <f>R99+R101</f>
         <v>13461540000</v>
       </c>
@@ -6799,279 +6928,310 @@
       <c r="J104" s="11">
         <v>271000000</v>
       </c>
-      <c r="Q104" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="R104" s="69"/>
+      <c r="Q104" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="R104" s="45"/>
     </row>
     <row r="105" spans="1:19" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
+        <v>164</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:I105" si="19">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-31537600</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="19"/>
+        <v>-49321400</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="19"/>
+        <v>-62908400</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="19"/>
+        <v>-79971600</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="19"/>
+        <v>-87173600</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="19"/>
+        <v>-94749600</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="19"/>
+        <v>-102292200</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="19"/>
+        <v>-377282400</v>
+      </c>
+      <c r="J105" s="1">
+        <f>(J22*(1-0.2))+J77+J88+J81</f>
+        <v>-444600000</v>
+      </c>
+      <c r="K105" s="29">
+        <f>J105*(1+$R$106)</f>
+        <v>-544044129.60822904</v>
+      </c>
+      <c r="L105" s="29">
+        <f t="shared" ref="L105:O105" si="20">K105*(1+$R$106)</f>
+        <v>-665731027.8029139</v>
+      </c>
+      <c r="M105" s="29">
+        <f t="shared" si="20"/>
+        <v>-814635757.02705359</v>
+      </c>
+      <c r="N105" s="29">
+        <f t="shared" si="20"/>
+        <v>-996846156.94899714</v>
+      </c>
+      <c r="O105" s="29">
+        <f t="shared" si="20"/>
+        <v>-1219811740.4647441</v>
+      </c>
+      <c r="P105" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q105" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="R105" s="56">
+        <f>(R100*R92)+(R102*R97)</f>
+        <v>7.0928740972355755E-2</v>
+      </c>
+      <c r="S105" s="15"/>
+    </row>
+    <row r="106" spans="1:19" ht="19">
+      <c r="A106" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
         <v>0.35140359724323411</v>
       </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
         <v>0.11621784107635214</v>
       </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
         <v>-0.30871236743866426</v>
       </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
         <v>-0.79876951183471689</v>
       </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
         <v>-4.6961281708945259</v>
       </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105" si="19">(H106/G106)-1</f>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
         <v>2.9948706834272505</v>
       </c>
-      <c r="I105" s="15">
-        <f>(I106/H106)-1</f>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
         <v>-0.21008372967792099</v>
       </c>
-      <c r="J105" s="15">
-        <f>(J106/I106)-1</f>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
         <v>-0.25595238095238093</v>
       </c>
-      <c r="K105" s="66">
-        <v>271300000</v>
-      </c>
-      <c r="L105" s="66">
-        <v>378800000</v>
-      </c>
-      <c r="M105" s="66">
-        <v>596300000</v>
-      </c>
-      <c r="N105" s="66">
+      <c r="K106" s="37">
+        <v>292600000</v>
+      </c>
+      <c r="L106" s="37">
+        <v>396300000</v>
+      </c>
+      <c r="M106" s="37">
+        <v>562400000</v>
+      </c>
+      <c r="N106" s="37">
         <v>780000000</v>
       </c>
-      <c r="O105" s="66">
-        <v>1007000000</v>
-      </c>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="R105" s="27">
-        <f>(R100*R92)+(R102*R97)</f>
-        <v>7.0901514649988479E-2</v>
-      </c>
-      <c r="S105" s="15"/>
-    </row>
-    <row r="106" spans="1:19" ht="19">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="O106" s="37">
+        <v>998000000</v>
+      </c>
+      <c r="P106" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q106" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="R106" s="58">
+        <f>(SUM(K4:O4)/5)</f>
+        <v>0.22367100676614721</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="19">
+      <c r="A107" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="1">
         <v>-35694000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>-48237000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>-53843000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>-37221000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>-7490000</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G107" s="1">
         <v>27684000</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H107" s="1">
         <v>110594000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I107" s="1">
         <v>87360000</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J107" s="1">
         <v>65000000</v>
       </c>
-      <c r="K106" s="43">
-        <f>J106*(1+$R$106)</f>
-        <v>79290732.685187638</v>
-      </c>
-      <c r="L106" s="43">
-        <f t="shared" ref="L106:O106" si="20">K106*(1+$R$106)</f>
-        <v>96723389.073136657</v>
-      </c>
-      <c r="M106" s="43">
-        <f t="shared" si="20"/>
-        <v>117988744.42159195</v>
-      </c>
-      <c r="N106" s="43">
-        <f t="shared" si="20"/>
-        <v>143929446.05835956</v>
-      </c>
-      <c r="O106" s="43">
-        <f t="shared" si="20"/>
-        <v>175573403.58370033</v>
-      </c>
-      <c r="P106" s="44" t="s">
+      <c r="K107" s="30"/>
+      <c r="L107" s="30"/>
+      <c r="M107" s="30"/>
+      <c r="N107" s="30"/>
+      <c r="O107" s="38">
+        <f>O106*(1+R107)/(R108-R107)</f>
+        <v>22272546086.462669</v>
+      </c>
+      <c r="P107" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q107" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="Q106" s="45" t="s">
+      <c r="R107" s="60">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="19">
+      <c r="K108" s="38">
+        <f t="shared" ref="K108:N108" si="21">K107+K106</f>
+        <v>292600000</v>
+      </c>
+      <c r="L108" s="38">
+        <f t="shared" si="21"/>
+        <v>396300000</v>
+      </c>
+      <c r="M108" s="38">
+        <f t="shared" si="21"/>
+        <v>562400000</v>
+      </c>
+      <c r="N108" s="38">
+        <f t="shared" si="21"/>
+        <v>780000000</v>
+      </c>
+      <c r="O108" s="38">
+        <f>O107+O106</f>
+        <v>23270546086.462669</v>
+      </c>
+      <c r="P108" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q108" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="R106" s="46">
-        <f>(SUM(K4:O4)/5)</f>
-        <v>0.21985742592596358</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="19">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="44"/>
-      <c r="L107" s="44"/>
-      <c r="M107" s="44"/>
-      <c r="N107" s="44"/>
-      <c r="O107" s="67">
-        <f>O105*(1+R107)/(R108-R107)</f>
-        <v>22486730729.271458</v>
-      </c>
-      <c r="P107" s="48" t="s">
+      <c r="R108" s="58">
+        <f>R105</f>
+        <v>7.0928740972355755E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="19">
+      <c r="K109" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="Q107" s="49" t="s">
+      <c r="L109" s="62"/>
+    </row>
+    <row r="110" spans="1:19" ht="20">
+      <c r="K110" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="R107" s="50">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="19">
-      <c r="K108" s="47">
-        <f t="shared" ref="K108:M108" si="21">K107+K106</f>
-        <v>79290732.685187638</v>
-      </c>
-      <c r="L108" s="47">
-        <f t="shared" si="21"/>
-        <v>96723389.073136657</v>
-      </c>
-      <c r="M108" s="47">
-        <f t="shared" si="21"/>
-        <v>117988744.42159195</v>
-      </c>
-      <c r="N108" s="47">
-        <f>N107+N106</f>
-        <v>143929446.05835956</v>
-      </c>
-      <c r="O108" s="67">
-        <f>O107+O105</f>
-        <v>23493730729.271458</v>
-      </c>
-      <c r="P108" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q108" s="51" t="s">
+      <c r="L110" s="53">
+        <f>NPV(R108,K108,L108,M108,N108,O108)</f>
+        <v>18189412650.155563</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="20">
+      <c r="K111" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="R108" s="52">
-        <f>R105</f>
-        <v>7.0901514649988479E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" ht="19">
-      <c r="K109" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="L109" s="71"/>
-    </row>
-    <row r="110" spans="1:19" ht="20">
-      <c r="K110" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="L110" s="41">
-        <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>17044203495.864441</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" ht="20">
-      <c r="K111" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="L111" s="41">
+      <c r="L111" s="53">
         <f>J40</f>
         <v>2580000000</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="20">
-      <c r="K112" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="L112" s="41">
+      <c r="K112" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="L112" s="53">
         <f>R99</f>
         <v>2335000000</v>
       </c>
     </row>
     <row r="113" spans="11:12" ht="20">
-      <c r="K113" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="L113" s="41">
+      <c r="K113" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="L113" s="53">
         <f>L110+L111-L112</f>
-        <v>17289203495.864441</v>
+        <v>18434412650.155563</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20">
-      <c r="K114" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="L114" s="54">
+      <c r="K114" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="L114" s="63">
         <f>J34*(1+(5*0.05))</f>
         <v>197528750</v>
       </c>
     </row>
     <row r="115" spans="11:12" ht="20">
-      <c r="K115" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="L115" s="56">
+      <c r="K115" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="L115" s="65">
         <f>L113/L114</f>
-        <v>87.527529515903083</v>
+        <v>93.325212912832001</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20">
-      <c r="K116" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="L116" s="57" cm="1">
+      <c r="K116" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="L116" s="66" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
         <v>68.53</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20">
-      <c r="K117" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="L117" s="59">
+      <c r="K117" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="L117" s="67">
         <f>L115/L116-1</f>
-        <v>0.27721478937550104</v>
+        <v>0.36181545181427111</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20">
-      <c r="K118" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="L118" s="60" t="str">
+      <c r="K118" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="L118" s="68" t="str">
         <f>IF(L115&gt;L116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -7106,8 +7266,9 @@
     <hyperlink ref="J36" r:id="rId18" tooltip="https://www.sec.gov/Archives/edgar/data/1660134/000166013423000013/0001660134-23-000013-index.htm" xr:uid="{8A89EFDB-1013-714B-92CC-76DD34CA2534}"/>
     <hyperlink ref="J74" r:id="rId19" tooltip="https://www.sec.gov/Archives/edgar/data/1660134/000166013423000013/0001660134-23-000013-index.htm" xr:uid="{31D6D0A3-15ED-F044-94A9-8A00119B1425}"/>
     <hyperlink ref="K1" r:id="rId20" display="https://finbox.com/NASDAQGS:OKTA/explorer/revenue_proj" xr:uid="{910E93A7-0337-5149-8798-EFA6D1FB52FE}"/>
+    <hyperlink ref="P106" r:id="rId21" xr:uid="{2CC5807D-C0AD-1048-9638-4D084F091D7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>
--- a/Technology/Software/Okta.xlsx
+++ b/Technology/Software/Okta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC95096F-C59F-C14F-849A-79B78DA2FD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5DE85A-4118-DC44-A8B5-A62E8CC2FCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,8 +586,8 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -952,74 +952,74 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2257,20 +2257,19 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.0910000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2289,7 +2288,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2415,35 +2413,38 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>110.94</v>
+    <v>91.5</v>
     <v>44.120399999999997</v>
-    <v>1.018</v>
-    <v>-0.04</v>
-    <v>-5.8330000000000003E-4</v>
+    <v>0.98799999999999999</v>
+    <v>2.65</v>
+    <v>3.1732999999999997E-2</v>
+    <v>-0.02</v>
+    <v>-2.321E-4</v>
     <v>USD</v>
     <v>Okta, Inc. is an independent identity provider. The Company's Okta Identity Platform is an independent and neutral cloud-based identity solution that allows its customers to integrate with nearly any application, service or cloud that they choose through its secure platform and cloud infrastructure. Its Workforce Identity Cloud is used as the central system for an organization’s connectivity, access, authentication and identity lifecycle management needs spanning all of its users, technology and applications. Its Workforce Identity products include Universal Directory, Single Sign-On, Adaptive Multi-Factor Authentication, Lifecycle Management, API Access Management, Access Gateway, Advanced Server Access and Okta Identity Governance. The Company’s Customer Identity products include Universal Login, Attack Protection, Adaptive Multi-Factor Authentication, Passwordless, Machine to Machine, Private Cloud, Organizations, Actions and Extensibility, and Enterprise Connections.</v>
-    <v>5683</v>
+    <v>5806</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>100 1st St Ste 600, SAN FRANCISCO, CA, 94105-4687 US</v>
-    <v>69.61</v>
+    <v>86.66</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.999899918752</v>
+    <v>45170.999680231253</v>
     <v>0</v>
-    <v>68.41</v>
-    <v>11126540000</v>
+    <v>84.360100000000003</v>
+    <v>13988940000</v>
     <v>OKTA, INC.</v>
     <v>OKTA, INC.</v>
-    <v>69.09</v>
-    <v>68.569999999999993</v>
-    <v>68.53</v>
+    <v>84.46</v>
+    <v>83.51</v>
+    <v>86.16</v>
+    <v>86.14</v>
     <v>162360100</v>
     <v>OKTA</v>
     <v>OKTA, INC. (XNAS:OKTA)</v>
-    <v>153</v>
-    <v>3515523</v>
+    <v>4481112</v>
+    <v>2126114</v>
     <v>2010</v>
   </rv>
   <rv s="2">
@@ -2475,6 +2476,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2494,6 +2497,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2510,7 +2514,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2521,13 +2525,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2591,13 +2598,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2641,6 +2654,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2648,6 +2664,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3009,10 +3028,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3757,15 +3776,15 @@
       </c>
       <c r="Q16" s="41">
         <f>R101/J3</f>
-        <v>5.9884499461786866</v>
+        <v>7.5290312163616795</v>
       </c>
       <c r="R16" s="41">
         <f>R101/J28</f>
-        <v>-13.652196319018405</v>
+        <v>-17.164343558282209</v>
       </c>
       <c r="S16" s="42">
         <f>R101/J107</f>
-        <v>171.17753846153846</v>
+        <v>215.21446153846153</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19">
@@ -3896,15 +3915,15 @@
       </c>
       <c r="Q19" s="41">
         <f>R101/K3</f>
-        <v>5.1039174311926603</v>
+        <v>6.4169449541284402</v>
       </c>
       <c r="R19" s="41">
         <f>R101/K28</f>
-        <v>68.093880048959605</v>
+        <v>85.61162790697675</v>
       </c>
       <c r="S19" s="42">
         <f>R101/K105</f>
-        <v>-20.451539488188796</v>
+        <v>-25.712877391165968</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1">
@@ -4060,7 +4079,7 @@
       </c>
       <c r="S22" s="40">
         <f>J107/R101</f>
-        <v>5.841887954386539E-3</v>
+        <v>4.6465278998980624E-3</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="19">
@@ -6113,10 +6132,10 @@
       <c r="J83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q83" s="43" t="s">
+      <c r="Q83" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="R83" s="44"/>
+      <c r="R83" s="69"/>
     </row>
     <row r="84" spans="1:18" ht="19" customHeight="1">
       <c r="A84" s="5" t="s">
@@ -6149,10 +6168,10 @@
       <c r="J84" s="1">
         <v>-6000000</v>
       </c>
-      <c r="Q84" s="45" t="s">
+      <c r="Q84" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="R84" s="45"/>
+      <c r="R84" s="66"/>
     </row>
     <row r="85" spans="1:18" ht="20">
       <c r="A85" s="5" t="s">
@@ -6185,10 +6204,10 @@
       <c r="J85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q85" s="46" t="s">
+      <c r="Q85" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="R85" s="47">
+      <c r="R85" s="44">
         <f>J17</f>
         <v>11000000</v>
       </c>
@@ -6224,10 +6243,10 @@
       <c r="J86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q86" s="46" t="s">
+      <c r="Q86" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="R86" s="47">
+      <c r="R86" s="44">
         <f>J56</f>
         <v>0</v>
       </c>
@@ -6263,10 +6282,10 @@
       <c r="J87" s="10">
         <v>86000000</v>
       </c>
-      <c r="Q87" s="46" t="s">
+      <c r="Q87" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="R87" s="47">
+      <c r="R87" s="44">
         <f>J61</f>
         <v>2335000000</v>
       </c>
@@ -6302,10 +6321,10 @@
       <c r="J88" s="1">
         <v>-12000000</v>
       </c>
-      <c r="Q88" s="48" t="s">
+      <c r="Q88" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="R88" s="49">
+      <c r="R88" s="46">
         <f>R85/(R86+R87)</f>
         <v>4.7109207708779443E-3</v>
       </c>
@@ -6350,10 +6369,10 @@
         <f t="shared" si="18"/>
         <v>6.4585575888051671E-3</v>
       </c>
-      <c r="Q89" s="46" t="s">
+      <c r="Q89" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="R89" s="47">
+      <c r="R89" s="44">
         <f>J27</f>
         <v>14000000</v>
       </c>
@@ -6389,10 +6408,10 @@
       <c r="J90" s="1">
         <v>-4000000</v>
       </c>
-      <c r="Q90" s="46" t="s">
+      <c r="Q90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="R90" s="47">
+      <c r="R90" s="44">
         <f>J25</f>
         <v>-801000000</v>
       </c>
@@ -6428,10 +6447,10 @@
       <c r="J91" s="1">
         <v>-1411000000</v>
       </c>
-      <c r="Q91" s="48" t="s">
+      <c r="Q91" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="R91" s="49">
+      <c r="R91" s="46">
         <f>R89/R90</f>
         <v>-1.7478152309612985E-2</v>
       </c>
@@ -6467,10 +6486,10 @@
       <c r="J92" s="1">
         <v>1308000000</v>
       </c>
-      <c r="Q92" s="48" t="s">
+      <c r="Q92" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="R92" s="49">
+      <c r="R92" s="46">
         <f>R88*(1-R91)</f>
         <v>4.7932589616298685E-3</v>
       </c>
@@ -6506,10 +6525,10 @@
       <c r="J93" s="1">
         <v>-11000000</v>
       </c>
-      <c r="Q93" s="45" t="s">
+      <c r="Q93" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="R93" s="45"/>
+      <c r="R93" s="66"/>
     </row>
     <row r="94" spans="1:18" ht="20">
       <c r="A94" s="6" t="s">
@@ -6542,12 +6561,12 @@
       <c r="J94" s="10">
         <v>-130000000</v>
       </c>
-      <c r="Q94" s="46" t="s">
+      <c r="Q94" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="R94" s="50">
+      <c r="R94" s="47">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.0910000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20">
@@ -6581,12 +6600,12 @@
       <c r="J95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q95" s="46" t="s">
+      <c r="Q95" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="R95" s="51" cm="1">
+      <c r="R95" s="48" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.018</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20">
@@ -6620,10 +6639,10 @@
       <c r="J96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q96" s="46" t="s">
+      <c r="Q96" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="R96" s="52">
+      <c r="R96" s="49">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6658,12 +6677,12 @@
       <c r="J97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q97" s="48" t="s">
+      <c r="Q97" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="R97" s="49">
+      <c r="R97" s="46">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>8.4807840000000009E-2</v>
+        <v>8.3482920000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="19" customHeight="1">
@@ -6697,10 +6716,10 @@
       <c r="J98" s="1">
         <v>0</v>
       </c>
-      <c r="Q98" s="45" t="s">
+      <c r="Q98" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="R98" s="45"/>
+      <c r="R98" s="66"/>
     </row>
     <row r="99" spans="1:19" ht="20">
       <c r="A99" s="5" t="s">
@@ -6733,10 +6752,10 @@
       <c r="J99" s="1">
         <v>48000000</v>
       </c>
-      <c r="Q99" s="46" t="s">
+      <c r="Q99" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="R99" s="47">
+      <c r="R99" s="44">
         <f>R86+R87</f>
         <v>2335000000</v>
       </c>
@@ -6772,12 +6791,12 @@
       <c r="J100" s="10">
         <v>48000000</v>
       </c>
-      <c r="Q100" s="48" t="s">
+      <c r="Q100" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="R100" s="49">
+      <c r="R100" s="46">
         <f>R99/R103</f>
-        <v>0.17345712303347166</v>
+        <v>0.14304144710161884</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="20">
@@ -6811,12 +6830,12 @@
       <c r="J101" s="1">
         <v>-6000000</v>
       </c>
-      <c r="Q101" s="46" t="s">
+      <c r="Q101" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="R101" s="53" cm="1">
+      <c r="R101" s="50" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11126540000</v>
+        <v>13988940000</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="20">
@@ -6850,12 +6869,12 @@
       <c r="J102" s="10">
         <v>-1656000</v>
       </c>
-      <c r="Q102" s="48" t="s">
+      <c r="Q102" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="R102" s="49">
+      <c r="R102" s="46">
         <f>R101/R103</f>
-        <v>0.82654287696652839</v>
+        <v>0.85695855289838119</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="20">
@@ -6889,12 +6908,12 @@
       <c r="J103" s="1">
         <v>272656000</v>
       </c>
-      <c r="Q103" s="48" t="s">
+      <c r="Q103" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="R103" s="54">
+      <c r="R103" s="51">
         <f>R99+R101</f>
-        <v>13461540000</v>
+        <v>16323940000</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="20" customHeight="1" thickBot="1">
@@ -6928,10 +6947,10 @@
       <c r="J104" s="11">
         <v>271000000</v>
       </c>
-      <c r="Q104" s="45" t="s">
+      <c r="Q104" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="R104" s="45"/>
+      <c r="R104" s="66"/>
     </row>
     <row r="105" spans="1:19" ht="21" thickTop="1">
       <c r="A105" s="14" t="s">
@@ -6996,12 +7015,12 @@
       <c r="P105" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="Q105" s="55" t="s">
+      <c r="Q105" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="R105" s="56">
+      <c r="R105" s="53">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>7.0928740972355755E-2</v>
+        <v>7.2227037013135667E-2</v>
       </c>
       <c r="S105" s="15"/>
     </row>
@@ -7011,35 +7030,35 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:J106" si="21">(C107/B107)-1</f>
         <v>0.35140359724323411</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="21"/>
         <v>0.11621784107635214</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="21"/>
         <v>-0.30871236743866426</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="21"/>
         <v>-0.79876951183471689</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="21"/>
         <v>-4.6961281708945259</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="21"/>
         <v>2.9948706834272505</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="21"/>
         <v>-0.21008372967792099</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="21"/>
         <v>-0.25595238095238093</v>
       </c>
       <c r="K106" s="37">
@@ -7060,16 +7079,16 @@
       <c r="P106" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="Q106" s="57" t="s">
+      <c r="Q106" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="R106" s="58">
+      <c r="R106" s="55">
         <f>(SUM(K4:O4)/5)</f>
         <v>0.22367100676614721</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="19">
-      <c r="A107" s="69" t="s">
+      <c r="A107" s="65" t="s">
         <v>166</v>
       </c>
       <c r="B107" s="1">
@@ -7105,133 +7124,133 @@
       <c r="N107" s="30"/>
       <c r="O107" s="38">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>22272546086.462669</v>
+        <v>21660262101.886211</v>
       </c>
       <c r="P107" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="Q107" s="59" t="s">
+      <c r="Q107" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="R107" s="60">
+      <c r="R107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:19" ht="19">
       <c r="K108" s="38">
-        <f t="shared" ref="K108:N108" si="21">K107+K106</f>
+        <f t="shared" ref="K108:N108" si="22">K107+K106</f>
         <v>292600000</v>
       </c>
       <c r="L108" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>396300000</v>
       </c>
       <c r="M108" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>562400000</v>
       </c>
       <c r="N108" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>780000000</v>
       </c>
       <c r="O108" s="38">
         <f>O107+O106</f>
-        <v>23270546086.462669</v>
+        <v>22658262101.886211</v>
       </c>
       <c r="P108" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="Q108" s="61" t="s">
+      <c r="Q108" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="R108" s="58">
+      <c r="R108" s="55">
         <f>R105</f>
-        <v>7.0928740972355755E-2</v>
+        <v>7.2227037013135667E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="19">
-      <c r="K109" s="62" t="s">
+      <c r="K109" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="L109" s="62"/>
+      <c r="L109" s="67"/>
     </row>
     <row r="110" spans="1:19" ht="20">
-      <c r="K110" s="63" t="s">
+      <c r="K110" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="L110" s="53">
+      <c r="L110" s="50">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>18189412650.155563</v>
+        <v>17651910092.970894</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="20">
-      <c r="K111" s="63" t="s">
+      <c r="K111" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="L111" s="53">
+      <c r="L111" s="50">
         <f>J40</f>
         <v>2580000000</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="20">
-      <c r="K112" s="63" t="s">
+      <c r="K112" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="L112" s="53">
+      <c r="L112" s="50">
         <f>R99</f>
         <v>2335000000</v>
       </c>
     </row>
     <row r="113" spans="11:12" ht="20">
-      <c r="K113" s="63" t="s">
+      <c r="K113" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="L113" s="53">
+      <c r="L113" s="50">
         <f>L110+L111-L112</f>
-        <v>18434412650.155563</v>
+        <v>17896910092.970894</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20">
-      <c r="K114" s="63" t="s">
+      <c r="K114" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="L114" s="63">
+      <c r="L114" s="59">
         <f>J34*(1+(5*0.05))</f>
         <v>197528750</v>
       </c>
     </row>
     <row r="115" spans="11:12" ht="20">
-      <c r="K115" s="64" t="s">
+      <c r="K115" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="L115" s="65">
+      <c r="L115" s="61">
         <f>L113/L114</f>
-        <v>93.325212912832001</v>
+        <v>90.604077092427787</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20">
-      <c r="K116" s="63" t="s">
+      <c r="K116" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="L116" s="66" cm="1">
+      <c r="L116" s="62" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>68.53</v>
+        <v>86.16</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20">
-      <c r="K117" s="64" t="s">
+      <c r="K117" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="L117" s="67">
+      <c r="L117" s="63">
         <f>L115/L116-1</f>
-        <v>0.36181545181427111</v>
+        <v>5.1579353440433851E-2</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20">
-      <c r="K118" s="64" t="s">
+      <c r="K118" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="L118" s="68" t="str">
+      <c r="L118" s="64" t="str">
         <f>IF(L115&gt;L116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
